--- a/urbs_intertemporal_2050/2044.xlsx
+++ b/urbs_intertemporal_2050/2044.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C432259-375B-404F-980C-337FAC565BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA61FB5-9391-41B7-9364-DB5C0B67E823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7545" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -347,8 +347,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -481,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -534,6 +535,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,10 +1269,13 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1473,8 +1480,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>53560</v>
+      <c r="D6" s="25">
+        <v>999999</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1511,8 +1518,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>43590</v>
+      <c r="D7" s="25">
+        <v>999999</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -1549,8 +1556,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>188900</v>
+      <c r="D8" s="25">
+        <v>999999</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -1777,12 +1784,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:B13">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A12:C13 A11 C11">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C13">
+  <conditionalFormatting sqref="B11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2307,7 +2314,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
